--- a/Project157_J. R. Wible(2007).xlsx
+++ b/Project157_J. R. Wible(2007).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/remi/Desktop/Finished &amp; Uploaded copy 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjjg18\GitHub\neotrans\matrices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAEC8707-7357-4B40-803F-ED6F16F7C735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF37BDA-A81A-4502-83BE-34308A76833E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8B1DA6E1-BAAC-4348-9260-7307BFA6FD60}"/>
+    <workbookView xWindow="16455" yWindow="3510" windowWidth="15945" windowHeight="18375" xr2:uid="{8B1DA6E1-BAAC-4348-9260-7307BFA6FD60}"/>
   </bookViews>
   <sheets>
     <sheet name="Project157" sheetId="1" r:id="rId1"/>
@@ -1404,55 +1404,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>33866</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>-1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>3386</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>16932</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2786D951-A363-73B1-53C9-0A25E272B2B1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8906933" y="287866"/>
-          <a:ext cx="10756053" cy="6722533"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1774,17 +1725,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9580A496-93EC-224F-B3F5-C98433976476}">
   <dimension ref="A1:C409"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <selection sqref="A1:C1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="83.33203125" customWidth="1"/>
-    <col min="2" max="3" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="83.375" customWidth="1"/>
+    <col min="2" max="3" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1795,7 +1744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>428</v>
       </c>
@@ -1806,7 +1755,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1814,7 +1763,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1825,7 +1774,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1836,7 +1785,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1847,7 +1796,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1858,7 +1807,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1869,7 +1818,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1880,7 +1829,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1889,7 +1838,7 @@
       </c>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1900,7 +1849,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1911,7 +1860,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1922,7 +1871,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1931,7 +1880,7 @@
       </c>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1940,7 +1889,7 @@
       </c>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1949,7 +1898,7 @@
       </c>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1960,7 +1909,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1971,7 +1920,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1982,7 +1931,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1993,7 +1942,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -2002,7 +1951,7 @@
       </c>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -2013,7 +1962,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -2021,7 +1970,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -2032,7 +1981,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -2043,7 +1992,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -2054,7 +2003,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -2065,7 +2014,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -2076,7 +2025,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -2087,7 +2036,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -2095,7 +2044,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -2106,7 +2055,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -2117,7 +2066,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -2128,7 +2077,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -2139,7 +2088,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -2150,7 +2099,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -2161,7 +2110,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -2172,7 +2121,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -2183,7 +2132,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -2194,7 +2143,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -2205,7 +2154,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -2216,7 +2165,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -2227,7 +2176,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -2235,7 +2184,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -2246,7 +2195,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -2254,7 +2203,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -2265,7 +2214,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -2276,7 +2225,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -2287,7 +2236,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -2298,7 +2247,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -2309,7 +2258,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -2317,7 +2266,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -2328,7 +2277,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -2339,7 +2288,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -2350,7 +2299,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -2361,7 +2310,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -2372,7 +2321,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -2383,7 +2332,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -2394,7 +2343,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -2402,7 +2351,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -2413,7 +2362,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -2424,7 +2373,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -2435,7 +2384,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -2446,7 +2395,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -2457,7 +2406,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -2468,7 +2417,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -2479,7 +2428,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>67</v>
       </c>
@@ -2490,7 +2439,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>68</v>
       </c>
@@ -2498,7 +2447,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>69</v>
       </c>
@@ -2509,7 +2458,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>70</v>
       </c>
@@ -2520,7 +2469,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>71</v>
       </c>
@@ -2531,7 +2480,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>72</v>
       </c>
@@ -2542,7 +2491,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>73</v>
       </c>
@@ -2553,7 +2502,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>74</v>
       </c>
@@ -2564,7 +2513,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>75</v>
       </c>
@@ -2575,7 +2524,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>76</v>
       </c>
@@ -2586,7 +2535,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>77</v>
       </c>
@@ -2597,7 +2546,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>78</v>
       </c>
@@ -2608,7 +2557,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>79</v>
       </c>
@@ -2619,7 +2568,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>80</v>
       </c>
@@ -2630,7 +2579,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>81</v>
       </c>
@@ -2641,7 +2590,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>82</v>
       </c>
@@ -2652,7 +2601,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>83</v>
       </c>
@@ -2663,7 +2612,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>84</v>
       </c>
@@ -2674,7 +2623,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>85</v>
       </c>
@@ -2685,7 +2634,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>86</v>
       </c>
@@ -2696,7 +2645,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>87</v>
       </c>
@@ -2707,7 +2656,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>88</v>
       </c>
@@ -2718,7 +2667,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>89</v>
       </c>
@@ -2729,7 +2678,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>90</v>
       </c>
@@ -2740,7 +2689,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>91</v>
       </c>
@@ -2749,7 +2698,7 @@
       </c>
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>92</v>
       </c>
@@ -2760,7 +2709,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>93</v>
       </c>
@@ -2771,7 +2720,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>94</v>
       </c>
@@ -2782,7 +2731,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>95</v>
       </c>
@@ -2793,7 +2742,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>96</v>
       </c>
@@ -2801,7 +2750,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>97</v>
       </c>
@@ -2812,7 +2761,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>98</v>
       </c>
@@ -2823,7 +2772,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>99</v>
       </c>
@@ -2834,7 +2783,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>100</v>
       </c>
@@ -2845,7 +2794,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>101</v>
       </c>
@@ -2856,7 +2805,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>102</v>
       </c>
@@ -2867,7 +2816,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>103</v>
       </c>
@@ -2875,7 +2824,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>104</v>
       </c>
@@ -2886,7 +2835,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>105</v>
       </c>
@@ -2897,7 +2846,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>106</v>
       </c>
@@ -2908,7 +2857,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>107</v>
       </c>
@@ -2919,7 +2868,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>108</v>
       </c>
@@ -2930,7 +2879,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>109</v>
       </c>
@@ -2941,7 +2890,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>110</v>
       </c>
@@ -2952,7 +2901,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>111</v>
       </c>
@@ -2963,7 +2912,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>112</v>
       </c>
@@ -2974,7 +2923,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>113</v>
       </c>
@@ -2985,7 +2934,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>114</v>
       </c>
@@ -2996,7 +2945,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>115</v>
       </c>
@@ -3007,7 +2956,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>116</v>
       </c>
@@ -3018,7 +2967,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>117</v>
       </c>
@@ -3029,7 +2978,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>118</v>
       </c>
@@ -3040,7 +2989,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>119</v>
       </c>
@@ -3051,7 +3000,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>120</v>
       </c>
@@ -3059,7 +3008,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>121</v>
       </c>
@@ -3070,7 +3019,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>122</v>
       </c>
@@ -3081,7 +3030,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>123</v>
       </c>
@@ -3089,7 +3038,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>124</v>
       </c>
@@ -3100,7 +3049,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>125</v>
       </c>
@@ -3111,7 +3060,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>126</v>
       </c>
@@ -3122,7 +3071,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>127</v>
       </c>
@@ -3133,7 +3082,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>128</v>
       </c>
@@ -3144,7 +3093,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>129</v>
       </c>
@@ -3155,7 +3104,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>130</v>
       </c>
@@ -3166,7 +3115,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>131</v>
       </c>
@@ -3177,7 +3126,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>132</v>
       </c>
@@ -3188,7 +3137,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>133</v>
       </c>
@@ -3199,7 +3148,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>134</v>
       </c>
@@ -3210,7 +3159,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>135</v>
       </c>
@@ -3221,7 +3170,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>136</v>
       </c>
@@ -3232,7 +3181,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>137</v>
       </c>
@@ -3243,7 +3192,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>138</v>
       </c>
@@ -3254,7 +3203,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>139</v>
       </c>
@@ -3265,7 +3214,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>140</v>
       </c>
@@ -3276,7 +3225,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>141</v>
       </c>
@@ -3287,7 +3236,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>142</v>
       </c>
@@ -3298,7 +3247,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>143</v>
       </c>
@@ -3309,7 +3258,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>144</v>
       </c>
@@ -3320,7 +3269,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>145</v>
       </c>
@@ -3331,7 +3280,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>146</v>
       </c>
@@ -3339,7 +3288,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>147</v>
       </c>
@@ -3347,7 +3296,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>148</v>
       </c>
@@ -3358,7 +3307,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>149</v>
       </c>
@@ -3369,7 +3318,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>150</v>
       </c>
@@ -3380,7 +3329,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>151</v>
       </c>
@@ -3391,7 +3340,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>152</v>
       </c>
@@ -3402,7 +3351,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>153</v>
       </c>
@@ -3413,7 +3362,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>154</v>
       </c>
@@ -3424,7 +3373,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>155</v>
       </c>
@@ -3435,7 +3384,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>156</v>
       </c>
@@ -3446,7 +3395,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>157</v>
       </c>
@@ -3457,7 +3406,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>158</v>
       </c>
@@ -3468,7 +3417,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>159</v>
       </c>
@@ -3479,7 +3428,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>160</v>
       </c>
@@ -3490,7 +3439,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>161</v>
       </c>
@@ -3501,7 +3450,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>162</v>
       </c>
@@ -3509,7 +3458,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>163</v>
       </c>
@@ -3517,7 +3466,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>164</v>
       </c>
@@ -3525,7 +3474,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>165</v>
       </c>
@@ -3536,7 +3485,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>166</v>
       </c>
@@ -3547,7 +3496,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>167</v>
       </c>
@@ -3558,7 +3507,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>168</v>
       </c>
@@ -3569,7 +3518,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>169</v>
       </c>
@@ -3577,7 +3526,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>170</v>
       </c>
@@ -3588,7 +3537,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>171</v>
       </c>
@@ -3597,7 +3546,7 @@
       </c>
       <c r="C171" s="1"/>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>172</v>
       </c>
@@ -3608,7 +3557,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>173</v>
       </c>
@@ -3616,7 +3565,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>174</v>
       </c>
@@ -3627,7 +3576,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>175</v>
       </c>
@@ -3638,7 +3587,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>176</v>
       </c>
@@ -3649,7 +3598,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>177</v>
       </c>
@@ -3660,7 +3609,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>178</v>
       </c>
@@ -3671,7 +3620,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>179</v>
       </c>
@@ -3682,7 +3631,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>180</v>
       </c>
@@ -3693,7 +3642,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>181</v>
       </c>
@@ -3704,7 +3653,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>182</v>
       </c>
@@ -3715,7 +3664,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>183</v>
       </c>
@@ -3726,7 +3675,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>184</v>
       </c>
@@ -3737,7 +3686,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>185</v>
       </c>
@@ -3745,7 +3694,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>186</v>
       </c>
@@ -3753,7 +3702,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>187</v>
       </c>
@@ -3761,7 +3710,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>188</v>
       </c>
@@ -3772,7 +3721,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>189</v>
       </c>
@@ -3783,7 +3732,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>190</v>
       </c>
@@ -3794,7 +3743,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>191</v>
       </c>
@@ -3802,7 +3751,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>192</v>
       </c>
@@ -3813,7 +3762,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>193</v>
       </c>
@@ -3824,7 +3773,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>194</v>
       </c>
@@ -3835,7 +3784,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>195</v>
       </c>
@@ -3843,7 +3792,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>196</v>
       </c>
@@ -3851,7 +3800,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>197</v>
       </c>
@@ -3859,7 +3808,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>198</v>
       </c>
@@ -3867,7 +3816,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>199</v>
       </c>
@@ -3875,7 +3824,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>200</v>
       </c>
@@ -3886,7 +3835,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>201</v>
       </c>
@@ -3894,7 +3843,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>202</v>
       </c>
@@ -3902,7 +3851,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>203</v>
       </c>
@@ -3913,7 +3862,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>204</v>
       </c>
@@ -3924,7 +3873,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>205</v>
       </c>
@@ -3935,7 +3884,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>206</v>
       </c>
@@ -3946,7 +3895,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>207</v>
       </c>
@@ -3954,7 +3903,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>208</v>
       </c>
@@ -3962,7 +3911,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>209</v>
       </c>
@@ -3970,7 +3919,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>210</v>
       </c>
@@ -3978,7 +3927,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>211</v>
       </c>
@@ -3986,7 +3935,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>212</v>
       </c>
@@ -3997,7 +3946,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>213</v>
       </c>
@@ -4008,7 +3957,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>214</v>
       </c>
@@ -4016,7 +3965,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>215</v>
       </c>
@@ -4024,7 +3973,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>216</v>
       </c>
@@ -4035,7 +3984,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>217</v>
       </c>
@@ -4046,7 +3995,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>218</v>
       </c>
@@ -4054,7 +4003,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>219</v>
       </c>
@@ -4062,7 +4011,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>220</v>
       </c>
@@ -4073,7 +4022,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>221</v>
       </c>
@@ -4084,7 +4033,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>222</v>
       </c>
@@ -4092,7 +4041,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>223</v>
       </c>
@@ -4103,7 +4052,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>224</v>
       </c>
@@ -4114,7 +4063,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>225</v>
       </c>
@@ -4125,7 +4074,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>226</v>
       </c>
@@ -4136,7 +4085,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>227</v>
       </c>
@@ -4144,7 +4093,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>228</v>
       </c>
@@ -4152,7 +4101,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>229</v>
       </c>
@@ -4160,7 +4109,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>230</v>
       </c>
@@ -4171,7 +4120,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>231</v>
       </c>
@@ -4179,7 +4128,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>232</v>
       </c>
@@ -4190,7 +4139,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>233</v>
       </c>
@@ -4201,7 +4150,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>234</v>
       </c>
@@ -4212,7 +4161,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>235</v>
       </c>
@@ -4223,7 +4172,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>236</v>
       </c>
@@ -4234,7 +4183,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>237</v>
       </c>
@@ -4245,7 +4194,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>238</v>
       </c>
@@ -4256,7 +4205,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>239</v>
       </c>
@@ -4267,7 +4216,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>240</v>
       </c>
@@ -4275,7 +4224,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>241</v>
       </c>
@@ -4286,7 +4235,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>242</v>
       </c>
@@ -4294,7 +4243,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>243</v>
       </c>
@@ -4302,7 +4251,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>244</v>
       </c>
@@ -4310,7 +4259,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>245</v>
       </c>
@@ -4321,7 +4270,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>246</v>
       </c>
@@ -4332,7 +4281,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>247</v>
       </c>
@@ -4340,7 +4289,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>248</v>
       </c>
@@ -4348,7 +4297,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>249</v>
       </c>
@@ -4359,7 +4308,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>250</v>
       </c>
@@ -4370,7 +4319,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>251</v>
       </c>
@@ -4381,7 +4330,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>252</v>
       </c>
@@ -4392,7 +4341,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>253</v>
       </c>
@@ -4400,7 +4349,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>254</v>
       </c>
@@ -4411,7 +4360,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>255</v>
       </c>
@@ -4422,7 +4371,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>256</v>
       </c>
@@ -4433,7 +4382,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>257</v>
       </c>
@@ -4444,7 +4393,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>258</v>
       </c>
@@ -4455,7 +4404,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>259</v>
       </c>
@@ -4463,7 +4412,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>260</v>
       </c>
@@ -4474,7 +4423,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>261</v>
       </c>
@@ -4482,7 +4431,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>262</v>
       </c>
@@ -4493,7 +4442,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>263</v>
       </c>
@@ -4504,7 +4453,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>264</v>
       </c>
@@ -4515,7 +4464,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>265</v>
       </c>
@@ -4526,7 +4475,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>266</v>
       </c>
@@ -4537,7 +4486,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>267</v>
       </c>
@@ -4548,7 +4497,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>268</v>
       </c>
@@ -4559,7 +4508,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>269</v>
       </c>
@@ -4570,7 +4519,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>270</v>
       </c>
@@ -4581,7 +4530,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>271</v>
       </c>
@@ -4592,7 +4541,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>272</v>
       </c>
@@ -4603,7 +4552,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>273</v>
       </c>
@@ -4614,7 +4563,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>274</v>
       </c>
@@ -4625,7 +4574,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>275</v>
       </c>
@@ -4636,7 +4585,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>276</v>
       </c>
@@ -4645,7 +4594,7 @@
       </c>
       <c r="C276" s="1"/>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>277</v>
       </c>
@@ -4654,7 +4603,7 @@
       </c>
       <c r="C277" s="1"/>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>278</v>
       </c>
@@ -4665,7 +4614,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>279</v>
       </c>
@@ -4676,7 +4625,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>280</v>
       </c>
@@ -4684,7 +4633,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>281</v>
       </c>
@@ -4695,7 +4644,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>282</v>
       </c>
@@ -4706,7 +4655,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>283</v>
       </c>
@@ -4717,7 +4666,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>284</v>
       </c>
@@ -4728,7 +4677,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>285</v>
       </c>
@@ -4739,7 +4688,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>286</v>
       </c>
@@ -4750,7 +4699,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>287</v>
       </c>
@@ -4761,7 +4710,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>288</v>
       </c>
@@ -4772,7 +4721,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>289</v>
       </c>
@@ -4783,7 +4732,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>290</v>
       </c>
@@ -4794,7 +4743,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>291</v>
       </c>
@@ -4805,7 +4754,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>292</v>
       </c>
@@ -4813,7 +4762,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>293</v>
       </c>
@@ -4824,7 +4773,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>294</v>
       </c>
@@ -4835,7 +4784,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>295</v>
       </c>
@@ -4846,7 +4795,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>296</v>
       </c>
@@ -4857,7 +4806,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>297</v>
       </c>
@@ -4868,7 +4817,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>298</v>
       </c>
@@ -4876,7 +4825,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>299</v>
       </c>
@@ -4887,7 +4836,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>300</v>
       </c>
@@ -4895,7 +4844,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>301</v>
       </c>
@@ -4906,7 +4855,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>302</v>
       </c>
@@ -4917,7 +4866,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>303</v>
       </c>
@@ -4928,7 +4877,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>304</v>
       </c>
@@ -4939,7 +4888,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>305</v>
       </c>
@@ -4947,7 +4896,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>306</v>
       </c>
@@ -4958,7 +4907,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>307</v>
       </c>
@@ -4969,7 +4918,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>308</v>
       </c>
@@ -4980,7 +4929,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>309</v>
       </c>
@@ -4991,7 +4940,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>310</v>
       </c>
@@ -5002,7 +4951,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>311</v>
       </c>
@@ -5010,7 +4959,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>312</v>
       </c>
@@ -5021,7 +4970,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>313</v>
       </c>
@@ -5032,7 +4981,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>314</v>
       </c>
@@ -5043,7 +4992,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>315</v>
       </c>
@@ -5051,7 +5000,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>316</v>
       </c>
@@ -5062,7 +5011,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>317</v>
       </c>
@@ -5070,7 +5019,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>318</v>
       </c>
@@ -5081,7 +5030,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>319</v>
       </c>
@@ -5092,7 +5041,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>320</v>
       </c>
@@ -5103,7 +5052,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>321</v>
       </c>
@@ -5114,7 +5063,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>322</v>
       </c>
@@ -5125,7 +5074,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>323</v>
       </c>
@@ -5136,7 +5085,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>324</v>
       </c>
@@ -5147,7 +5096,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>325</v>
       </c>
@@ -5158,7 +5107,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>326</v>
       </c>
@@ -5169,7 +5118,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>327</v>
       </c>
@@ -5180,7 +5129,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>328</v>
       </c>
@@ -5188,7 +5137,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>329</v>
       </c>
@@ -5196,7 +5145,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>330</v>
       </c>
@@ -5204,7 +5153,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>331</v>
       </c>
@@ -5215,7 +5164,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>332</v>
       </c>
@@ -5226,7 +5175,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>333</v>
       </c>
@@ -5237,7 +5186,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>334</v>
       </c>
@@ -5245,7 +5194,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>335</v>
       </c>
@@ -5256,7 +5205,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>336</v>
       </c>
@@ -5267,7 +5216,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>337</v>
       </c>
@@ -5278,7 +5227,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>338</v>
       </c>
@@ -5286,7 +5235,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>339</v>
       </c>
@@ -5297,7 +5246,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>340</v>
       </c>
@@ -5308,7 +5257,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>341</v>
       </c>
@@ -5319,7 +5268,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>342</v>
       </c>
@@ -5330,7 +5279,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>343</v>
       </c>
@@ -5341,7 +5290,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>344</v>
       </c>
@@ -5352,7 +5301,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>345</v>
       </c>
@@ -5363,7 +5312,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>346</v>
       </c>
@@ -5374,7 +5323,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>347</v>
       </c>
@@ -5385,7 +5334,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>348</v>
       </c>
@@ -5396,7 +5345,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>349</v>
       </c>
@@ -5407,7 +5356,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>350</v>
       </c>
@@ -5418,7 +5367,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>351</v>
       </c>
@@ -5429,7 +5378,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>352</v>
       </c>
@@ -5440,7 +5389,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>353</v>
       </c>
@@ -5451,7 +5400,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>354</v>
       </c>
@@ -5462,7 +5411,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>355</v>
       </c>
@@ -5470,7 +5419,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>356</v>
       </c>
@@ -5481,7 +5430,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>357</v>
       </c>
@@ -5492,7 +5441,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>358</v>
       </c>
@@ -5503,7 +5452,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>359</v>
       </c>
@@ -5514,7 +5463,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>360</v>
       </c>
@@ -5525,7 +5474,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>361</v>
       </c>
@@ -5536,7 +5485,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>362</v>
       </c>
@@ -5547,7 +5496,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>363</v>
       </c>
@@ -5558,7 +5507,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>364</v>
       </c>
@@ -5569,7 +5518,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>365</v>
       </c>
@@ -5580,7 +5529,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>366</v>
       </c>
@@ -5591,7 +5540,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>367</v>
       </c>
@@ -5602,7 +5551,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>368</v>
       </c>
@@ -5613,7 +5562,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>369</v>
       </c>
@@ -5624,7 +5573,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>370</v>
       </c>
@@ -5635,7 +5584,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>371</v>
       </c>
@@ -5646,7 +5595,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>372</v>
       </c>
@@ -5657,7 +5606,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>373</v>
       </c>
@@ -5668,7 +5617,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>374</v>
       </c>
@@ -5676,7 +5625,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>375</v>
       </c>
@@ -5687,7 +5636,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>376</v>
       </c>
@@ -5698,7 +5647,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>377</v>
       </c>
@@ -5709,7 +5658,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>378</v>
       </c>
@@ -5720,7 +5669,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>379</v>
       </c>
@@ -5731,7 +5680,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>380</v>
       </c>
@@ -5742,7 +5691,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>381</v>
       </c>
@@ -5753,7 +5702,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>382</v>
       </c>
@@ -5764,7 +5713,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>383</v>
       </c>
@@ -5775,7 +5724,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>384</v>
       </c>
@@ -5786,7 +5735,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>385</v>
       </c>
@@ -5794,7 +5743,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>386</v>
       </c>
@@ -5802,7 +5751,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>387</v>
       </c>
@@ -5813,7 +5762,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>388</v>
       </c>
@@ -5824,7 +5773,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>389</v>
       </c>
@@ -5835,7 +5784,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>390</v>
       </c>
@@ -5846,7 +5795,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>391</v>
       </c>
@@ -5857,7 +5806,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>392</v>
       </c>
@@ -5868,7 +5817,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>393</v>
       </c>
@@ -5876,7 +5825,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>394</v>
       </c>
@@ -5887,7 +5836,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>395</v>
       </c>
@@ -5895,7 +5844,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>396</v>
       </c>
@@ -5906,7 +5855,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>397</v>
       </c>
@@ -5914,7 +5863,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>398</v>
       </c>
@@ -5925,7 +5874,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>399</v>
       </c>
@@ -5936,7 +5885,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>400</v>
       </c>
@@ -5944,7 +5893,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>401</v>
       </c>
@@ -5955,7 +5904,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>402</v>
       </c>
@@ -5966,7 +5915,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>403</v>
       </c>
@@ -5974,7 +5923,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>404</v>
       </c>
@@ -5982,7 +5931,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>405</v>
       </c>
@@ -5993,7 +5942,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>406</v>
       </c>
@@ -6004,7 +5953,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>407</v>
       </c>
@@ -6015,7 +5964,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>408</v>
       </c>
@@ -6026,7 +5975,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>409</v>
       </c>
@@ -6040,6 +5989,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>